--- a/08_Protect_Mode/14 陷阱门.xlsx
+++ b/08_Protect_Mode/14 陷阱门.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2251DC1A-3A37-4D6C-9632-20DB1D858BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E843B5AD-9017-4340-BFF0-EABD001F5A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Tap Gate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -936,12 +937,149 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3、eflag的if位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、EFLAG寄存器结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标志用于控制处理器对可屏蔽中断请求的响应。置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以响应</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可屏蔽中断</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，反之则禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可屏蔽中断</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       IF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标志只对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可屏蔽中断</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有影响。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1235,36 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1125,7 +1293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1151,6 +1319,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1341,6 +1515,85 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1H2K((47JYAK[63Q{WM[(DW">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E90E4030-0078-8E60-475B-2D084DB61AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="548640"/>
+          <a:ext cx="6777038" cy="969962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1611,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S21"/>
+  <dimension ref="B2:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1737,10 +1990,17 @@
       </c>
       <c r="C21" s="8"/>
     </row>
+    <row r="24" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B21:C21" location="Sheet2!A1" display="2、实验" xr:uid="{590FBE65-DA9D-46E6-BA82-BD402982173A}"/>
+    <hyperlink ref="B24:C24" location="Sheet3!A1" display="3、eflag的if位" xr:uid="{4322D62D-F698-427E-AF71-EC2BC596AD96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2630,4 +2890,36 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C03DB1-C26E-49B0-813B-24858F9B654C}">
+  <dimension ref="B2:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>